--- a/data/DB_ex.xlsx
+++ b/data/DB_ex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurit\Downloads\Rephraseプロジェクト進捗ファイル20250529\完全トレーニングUI完成フェーズ３\project-root\Rephrase-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70082240-0FDA-487B-80DE-DBA2063078E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1544BB-762A-4DE6-A9B6-EBD1E66DD960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="4300" windowWidth="34130" windowHeight="16050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2530" yWindow="4590" windowWidth="34130" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example_master" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="285">
   <si>
     <t>構文ID</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Slot_display_order</t>
   </si>
   <si>
-    <t>知っていた</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -866,6 +863,42 @@
   </si>
   <si>
     <t>彼の</t>
+  </si>
+  <si>
+    <t>had</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去完了</t>
+    <rPh sb="0" eb="4">
+      <t>カコカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去形</t>
+    <rPh sb="0" eb="3">
+      <t>カコケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aux</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最後の瞬間に</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1274,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1448,9 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2159,11 +2190,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2197,23 +2226,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>105</v>
@@ -2221,7 +2250,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>105</v>
@@ -2229,15 +2258,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>104</v>
@@ -2245,7 +2274,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>104</v>
@@ -2253,7 +2282,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>104</v>
@@ -2261,15 +2290,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>105</v>
@@ -2277,7 +2306,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>105</v>
@@ -2285,7 +2314,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>105</v>
@@ -2293,7 +2322,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>105</v>
@@ -2301,15 +2330,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>104</v>
@@ -2317,15 +2346,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>105</v>
@@ -2333,7 +2362,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>105</v>
@@ -2341,39 +2370,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>105</v>
@@ -2381,7 +2410,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
@@ -2389,23 +2418,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>105</v>
@@ -2413,15 +2442,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>104</v>
@@ -2429,15 +2458,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>105</v>
@@ -2445,7 +2474,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
@@ -2453,7 +2482,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
@@ -2461,7 +2490,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>105</v>
@@ -2469,15 +2498,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>104</v>
@@ -2485,15 +2514,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
         <v>105</v>
@@ -2501,7 +2530,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
         <v>105</v>
@@ -2509,31 +2538,31 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
         <v>104</v>
@@ -2541,63 +2570,63 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
         <v>104</v>
@@ -2605,39 +2634,39 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>105</v>
@@ -2645,15 +2674,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
         <v>104</v>
@@ -2661,7 +2690,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>104</v>
@@ -2669,23 +2698,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
         <v>104</v>
@@ -2693,9 +2722,17 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>102</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2708,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2742,201 +2779,221 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>279</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>102</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2948,10 +3005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3012,16 +3069,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3029,13 +3086,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3043,10 +3103,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>105</v>
@@ -3057,10 +3117,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -3071,869 +3131,895 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
       </c>
+      <c r="D9" t="s">
+        <v>284</v>
+      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
       </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>281</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>105</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>105</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>104</v>
       </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>281</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>105</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>105</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>282</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>105</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>105</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>113</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>104</v>
       </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>105</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>105</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>105</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>105</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>104</v>
       </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
       <c r="E39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>105</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>105</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
         <v>104</v>
       </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
       <c r="E46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>104</v>
       </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
       <c r="E54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
         <v>105</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
         <v>104</v>
       </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
         <v>104</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
         <v>104</v>
       </c>
+      <c r="D65" t="s">
+        <v>120</v>
+      </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
         <v>104</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" t="s">
         <v>121</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>3</v>
       </c>
     </row>
@@ -3947,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
@@ -3963,10 +4049,10 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3974,10 +4060,10 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3985,10 +4071,10 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
         <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3996,10 +4082,10 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
         <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4007,10 +4093,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4018,10 +4104,10 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4029,10 +4115,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4040,10 +4126,10 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
         <v>137</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4051,10 +4137,10 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4062,10 +4148,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4073,7 +4159,7 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -4084,10 +4170,10 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4095,10 +4181,10 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
         <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4106,10 +4192,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4117,10 +4203,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4128,10 +4214,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4139,10 +4225,10 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4150,10 +4236,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4161,10 +4247,10 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4172,10 +4258,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4183,10 +4269,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4194,10 +4280,10 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4205,10 +4291,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4216,10 +4302,10 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4227,10 +4313,10 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4238,10 +4324,10 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4249,10 +4335,10 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4260,10 +4346,10 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4271,10 +4357,10 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4282,10 +4368,10 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4293,10 +4379,10 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4304,10 +4390,10 @@
         <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4315,10 +4401,10 @@
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4326,10 +4412,10 @@
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4337,10 +4423,10 @@
         <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -4348,10 +4434,10 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4359,10 +4445,10 @@
         <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4370,10 +4456,10 @@
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4381,10 +4467,10 @@
         <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4392,10 +4478,10 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4403,10 +4489,10 @@
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4414,10 +4500,10 @@
         <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -4425,10 +4511,10 @@
         <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4436,10 +4522,10 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4447,10 +4533,10 @@
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4458,10 +4544,10 @@
         <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -4469,10 +4555,10 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -4480,10 +4566,10 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -4491,10 +4577,10 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4502,10 +4588,10 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -4513,10 +4599,10 @@
         <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -4524,10 +4610,10 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -4535,10 +4621,10 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -4546,10 +4632,10 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -4557,10 +4643,10 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4568,10 +4654,10 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4579,10 +4665,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -4590,10 +4676,10 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -4601,10 +4687,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -4612,10 +4698,10 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -4623,10 +4709,10 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4634,10 +4720,10 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -4645,10 +4731,10 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -4656,7 +4742,7 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -4667,10 +4753,10 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -4678,10 +4764,10 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -4689,10 +4775,10 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -4700,10 +4786,10 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
         <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -4711,10 +4797,10 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -4722,10 +4808,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -4733,10 +4819,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -4744,10 +4830,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" t="s">
         <v>194</v>
-      </c>
-      <c r="C72" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -4755,10 +4841,10 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4766,10 +4852,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4777,7 +4863,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
         <v>39</v>
@@ -4788,10 +4874,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4799,10 +4885,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -4810,10 +4896,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4821,10 +4907,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4832,10 +4918,10 @@
         <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -4843,10 +4929,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -4854,10 +4940,10 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4865,10 +4951,10 @@
         <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -4876,10 +4962,10 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4887,10 +4973,10 @@
         <v>78</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4898,7 +4984,7 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s">
         <v>39</v>
@@ -4909,10 +4995,10 @@
         <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4920,10 +5006,10 @@
         <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4931,10 +5017,10 @@
         <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -4942,10 +5028,10 @@
         <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -4953,10 +5039,10 @@
         <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4964,10 +5050,10 @@
         <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4975,10 +5061,10 @@
         <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4986,10 +5072,10 @@
         <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -4997,10 +5083,10 @@
         <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -5008,10 +5094,10 @@
         <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -5019,7 +5105,7 @@
         <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
         <v>39</v>
@@ -5030,10 +5116,10 @@
         <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -5041,10 +5127,10 @@
         <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -5052,10 +5138,10 @@
         <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -5063,10 +5149,10 @@
         <v>81</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -5074,10 +5160,10 @@
         <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -5085,10 +5171,10 @@
         <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -5096,7 +5182,7 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
         <v>39</v>
@@ -5107,10 +5193,10 @@
         <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -5118,10 +5204,10 @@
         <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -5129,10 +5215,10 @@
         <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -5140,10 +5226,10 @@
         <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -5151,10 +5237,10 @@
         <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -5162,10 +5248,10 @@
         <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -5173,10 +5259,10 @@
         <v>85</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -5184,10 +5270,10 @@
         <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -5195,10 +5281,10 @@
         <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -5206,10 +5292,10 @@
         <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -5217,10 +5303,10 @@
         <v>89</v>
       </c>
       <c r="B115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -5228,10 +5314,10 @@
         <v>89</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -5239,10 +5325,10 @@
         <v>91</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -5250,7 +5336,7 @@
         <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
         <v>39</v>
@@ -5261,10 +5347,10 @@
         <v>91</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -5272,10 +5358,10 @@
         <v>91</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -5283,10 +5369,10 @@
         <v>91</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -5294,10 +5380,10 @@
         <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -5305,10 +5391,10 @@
         <v>92</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -5316,10 +5402,10 @@
         <v>92</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -5327,10 +5413,10 @@
         <v>92</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -5338,10 +5424,10 @@
         <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -5349,10 +5435,10 @@
         <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -5360,10 +5446,10 @@
         <v>95</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -5371,10 +5457,10 @@
         <v>95</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -5382,10 +5468,10 @@
         <v>95</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -5393,10 +5479,10 @@
         <v>95</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -5404,10 +5490,10 @@
         <v>95</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -5415,7 +5501,7 @@
         <v>96</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" t="s">
         <v>96</v>
@@ -5426,10 +5512,10 @@
         <v>99</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -5437,10 +5523,10 @@
         <v>99</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5454,10 +5540,10 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A117" sqref="A117"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5478,16 +5564,16 @@
         <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5498,10 +5584,10 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5515,13 +5601,13 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
         <v>129</v>
       </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -5535,10 +5621,10 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -5552,13 +5638,13 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5572,13 +5658,13 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -5592,13 +5678,13 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -5612,10 +5698,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
         <v>137</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -5629,10 +5715,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -5646,10 +5732,10 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5663,13 +5749,13 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -5683,13 +5769,13 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -5703,10 +5789,10 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
         <v>143</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -5720,13 +5806,13 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -5740,10 +5826,10 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -5757,10 +5843,10 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
         <v>121</v>
@@ -5777,10 +5863,10 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -5794,10 +5880,10 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5811,10 +5897,10 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5828,10 +5914,10 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -5845,13 +5931,13 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5865,10 +5951,10 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5882,10 +5968,10 @@
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -5899,10 +5985,10 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -5916,13 +6002,13 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5936,10 +6022,10 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -5953,10 +6039,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -5970,10 +6056,10 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -5987,10 +6073,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -6004,13 +6090,13 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -6024,13 +6110,13 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -6044,13 +6130,13 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -6064,10 +6150,10 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -6081,13 +6167,13 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -6101,10 +6187,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -6118,10 +6204,10 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -6135,10 +6221,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -6152,13 +6238,13 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -6172,10 +6258,10 @@
         <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6189,10 +6275,10 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -6206,13 +6292,13 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -6226,13 +6312,13 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6246,10 +6332,10 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -6263,10 +6349,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -6280,13 +6366,13 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -6300,10 +6386,10 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -6317,13 +6403,13 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -6337,10 +6423,10 @@
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -6354,13 +6440,13 @@
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -6374,10 +6460,10 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6391,13 +6477,13 @@
         <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -6411,13 +6497,13 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6431,13 +6517,13 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -6451,13 +6537,13 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -6471,13 +6557,13 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -6491,10 +6577,10 @@
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -6508,13 +6594,13 @@
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -6528,13 +6614,13 @@
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F58">
         <v>4</v>
@@ -6548,10 +6634,10 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E59" t="s">
         <v>112</v>
@@ -6568,10 +6654,10 @@
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -6585,13 +6671,13 @@
         <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -6605,10 +6691,10 @@
         <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -6622,10 +6708,10 @@
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -6639,13 +6725,13 @@
         <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" t="s">
         <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -6659,13 +6745,13 @@
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -6679,13 +6765,13 @@
         <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -6699,13 +6785,13 @@
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F67">
         <v>5</v>
@@ -6719,13 +6805,13 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" t="s">
         <v>133</v>
       </c>
-      <c r="D68" t="s">
-        <v>134</v>
-      </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -6739,10 +6825,10 @@
         <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -6756,13 +6842,13 @@
         <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F70">
         <v>3</v>
@@ -6776,13 +6862,13 @@
         <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -6796,13 +6882,13 @@
         <v>42</v>
       </c>
       <c r="C72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" t="s">
         <v>194</v>
       </c>
-      <c r="D72" t="s">
-        <v>195</v>
-      </c>
       <c r="E72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F72">
         <v>5</v>
@@ -6816,10 +6902,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -6833,10 +6919,10 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -6850,13 +6936,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
         <v>39</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F75">
         <v>3</v>
@@ -6870,13 +6956,13 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F76">
         <v>4</v>
@@ -6890,13 +6976,13 @@
         <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6910,10 +6996,10 @@
         <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -6927,10 +7013,10 @@
         <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F79">
         <v>3</v>
@@ -6944,13 +7030,13 @@
         <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F80">
         <v>4</v>
@@ -6964,13 +7050,13 @@
         <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -6984,10 +7070,10 @@
         <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -7001,13 +7087,13 @@
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F83">
         <v>3</v>
@@ -7021,10 +7107,10 @@
         <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F84">
         <v>4</v>
@@ -7038,10 +7124,10 @@
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -7055,13 +7141,13 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
         <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -7075,13 +7161,13 @@
         <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -7095,13 +7181,13 @@
         <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F88">
         <v>4</v>
@@ -7115,13 +7201,13 @@
         <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F89">
         <v>5</v>
@@ -7135,13 +7221,13 @@
         <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -7155,10 +7241,10 @@
         <v>42</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -7172,13 +7258,13 @@
         <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -7192,13 +7278,13 @@
         <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F93">
         <v>4</v>
@@ -7212,13 +7298,13 @@
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F94">
         <v>5</v>
@@ -7232,10 +7318,10 @@
         <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -7249,10 +7335,10 @@
         <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -7266,13 +7352,13 @@
         <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D97" t="s">
         <v>39</v>
       </c>
       <c r="E97" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -7286,13 +7372,13 @@
         <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -7306,13 +7392,13 @@
         <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -7326,10 +7412,10 @@
         <v>46</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -7343,13 +7429,13 @@
         <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F101">
         <v>3</v>
@@ -7363,13 +7449,13 @@
         <v>46</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F102">
         <v>4</v>
@@ -7383,10 +7469,10 @@
         <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -7400,13 +7486,13 @@
         <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
         <v>39</v>
       </c>
       <c r="E104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -7420,13 +7506,13 @@
         <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F105">
         <v>3</v>
@@ -7440,10 +7526,10 @@
         <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F106">
         <v>4</v>
@@ -7457,10 +7543,10 @@
         <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F107">
         <v>5</v>
@@ -7474,13 +7560,13 @@
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -7494,10 +7580,10 @@
         <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -7511,13 +7597,13 @@
         <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E110" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -7531,13 +7617,13 @@
         <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F111">
         <v>4</v>
@@ -7551,13 +7637,13 @@
         <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -7571,10 +7657,10 @@
         <v>46</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -7588,13 +7674,13 @@
         <v>46</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -7608,10 +7694,10 @@
         <v>46</v>
       </c>
       <c r="C115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F115">
         <v>4</v>
@@ -7625,13 +7711,13 @@
         <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F116">
         <v>5</v>
@@ -7645,10 +7731,10 @@
         <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -7662,13 +7748,13 @@
         <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
         <v>39</v>
       </c>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -7682,13 +7768,13 @@
         <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F119">
         <v>3</v>
@@ -7702,13 +7788,13 @@
         <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F120">
         <v>4</v>
@@ -7722,10 +7808,10 @@
         <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F121">
         <v>5</v>
@@ -7739,13 +7825,13 @@
         <v>42</v>
       </c>
       <c r="C122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -7759,10 +7845,10 @@
         <v>42</v>
       </c>
       <c r="C123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D123" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F123">
         <v>2</v>
@@ -7776,13 +7862,13 @@
         <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E124" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F124">
         <v>3</v>
@@ -7796,13 +7882,13 @@
         <v>42</v>
       </c>
       <c r="C125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F125">
         <v>4</v>
@@ -7816,13 +7902,13 @@
         <v>42</v>
       </c>
       <c r="C126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D126" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E126" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F126">
         <v>5</v>
@@ -7836,13 +7922,13 @@
         <v>46</v>
       </c>
       <c r="C127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -7856,10 +7942,10 @@
         <v>46</v>
       </c>
       <c r="C128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D128" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F128">
         <v>2</v>
@@ -7873,13 +7959,13 @@
         <v>46</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D129" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F129">
         <v>3</v>
@@ -7893,10 +7979,10 @@
         <v>46</v>
       </c>
       <c r="C130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F130">
         <v>4</v>
@@ -7910,10 +7996,10 @@
         <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F131">
         <v>5</v>
@@ -7927,10 +8013,10 @@
         <v>46</v>
       </c>
       <c r="C132" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E132" t="s">
         <v>113</v>
@@ -7947,7 +8033,7 @@
         <v>44</v>
       </c>
       <c r="C133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D133" t="s">
         <v>96</v>
@@ -7967,13 +8053,13 @@
         <v>44</v>
       </c>
       <c r="C134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E134" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -7987,13 +8073,13 @@
         <v>44</v>
       </c>
       <c r="C135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F135">
         <v>2</v>
